--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -471,7 +471,7 @@
     <t>missionContext</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://mitre.org/fhir/space-health/StructureDefinition/mission-context}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/aerospace/StructureDefinition/mission-context}
 </t>
   </si>
   <si>
@@ -591,7 +591,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -620,7 +620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -703,7 +703,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -817,7 +817,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -840,7 +840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -931,7 +931,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1204,7 +1204,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1263,7 +1263,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1296,7 +1296,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1308,7 +1308,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1416,7 +1416,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1499,7 +1499,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1536,7 +1536,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1558,7 +1558,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1623,7 +1623,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2748,7 +2748,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3863,7 +3863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>144</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>199</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>223</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>226</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>241</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>268</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>296</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>418</v>
       </c>
@@ -30757,12 +30757,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP231">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cumulative-radiation-dose.xlsx
+++ b/docs/StructureDefinition-cumulative-radiation-dose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
